--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6672E8-C988-4EC8-B5A5-6EE5C0A7F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ACCA3D-2000-4D62-BFC4-72614CA38F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="1845" windowWidth="20550" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11670" yWindow="3720" windowWidth="24810" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -51,17 +51,75 @@
     <t>batch size</t>
   </si>
   <si>
-    <t>meanAP</t>
+    <t>baseline- full finetune</t>
+  </si>
+  <si>
+    <t>resnet50</t>
+  </si>
+  <si>
+    <t>best validation meanAP</t>
+  </si>
+  <si>
+    <t>test meanAP</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>LinearLR</t>
+  </si>
+  <si>
+    <t>haidar</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model__unfz_lr005" --lr 0.005 -b 2</t>
+  </si>
+  <si>
+    <t>baseline- full finetune_increaseLR</t>
+  </si>
+  <si>
+    <t>babar</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01" --lr 0.01 -b 2</t>
+  </si>
+  <si>
+    <t>0.12 at E5</t>
+  </si>
+  <si>
+    <t>baseline- full finetune_decreaseLR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +142,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,52 +431,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0.01</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>1E-3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="0.12@Epoch5" xr:uid="{E3110AA9-DD8B-445A-8183-4183FD714B31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ACCA3D-2000-4D62-BFC4-72614CA38F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35D1D5-678A-4F09-AFC6-6EF44C54D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11670" yWindow="3720" windowWidth="24810" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35D1D5-678A-4F09-AFC6-6EF44C54D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48E7821-A1F1-4EEB-B44E-7BC9D73415A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="3720" windowWidth="24810" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18840" yWindow="5250" windowWidth="18540" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -90,17 +90,74 @@
     <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01" --lr 0.01 -b 2</t>
   </si>
   <si>
-    <t>0.12 at E5</t>
-  </si>
-  <si>
     <t>baseline- full finetune_decreaseLR</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr001" --lr 0.001 -b 2</t>
+  </si>
+  <si>
+    <t>0.139 at E6</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>0.117 at E9</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model__unfz_lr005_b4" --lr 0.005 -b 4</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01_b4" --lr 0.01 -b 4</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr001_b4" --lr 0.001 -b 4</t>
+  </si>
+  <si>
+    <t>baseline- full finetune-b4</t>
+  </si>
+  <si>
+    <t>baseline- full finetune_increaseLR-b4</t>
+  </si>
+  <si>
+    <t>baseline- full finetune_decreaseLR-b4</t>
+  </si>
+  <si>
+    <t>eval_command</t>
+  </si>
+  <si>
+    <t>0.132 at E5</t>
+  </si>
+  <si>
+    <t>0.144 at E7</t>
+  </si>
+  <si>
+    <t>baseline- full finetune-b8</t>
+  </si>
+  <si>
+    <t>baseline- full finetune_increaseLR-b8</t>
+  </si>
+  <si>
+    <t>baseline- full finetune_decreaseLR-b8</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr001_b8" --lr 0.001 -b 8</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr005_b8" --lr 0.005 -b 8</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01_b8" --lr 0.01 -b 8</t>
+  </si>
+  <si>
+    <t>resnet50_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +169,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,17 +191,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,16 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
@@ -452,7 +498,7 @@
     <col min="11" max="11" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +532,11 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,17 +561,14 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -548,21 +594,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -579,63 +625,225 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>1E-3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48E7821-A1F1-4EEB-B44E-7BC9D73415A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737881E1-8C43-4D8A-B95F-7EC9C9C39871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="5250" windowWidth="18540" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="5250" windowWidth="25860" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -45,21 +45,12 @@
     <t>lr scheduler</t>
   </si>
   <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
-    <t>batch size</t>
-  </si>
-  <si>
     <t>baseline- full finetune</t>
   </si>
   <si>
     <t>resnet50</t>
   </si>
   <si>
-    <t>best validation meanAP</t>
-  </si>
-  <si>
     <t>test meanAP</t>
   </si>
   <si>
@@ -150,7 +141,28 @@
     <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01_b8" --lr 0.01 -b 8</t>
   </si>
   <si>
-    <t>resnet50_v2</t>
+    <t>OneCycleLR</t>
+  </si>
+  <si>
+    <t>finetune-onecycle-b8</t>
+  </si>
+  <si>
+    <t>finetune-onecycle-b4</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_1cycle_lr005_b8" --lr 0.005 -b 8 -s one_cycle</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_1cycle_lr005_b4" --lr 0.005 -b 4 -s one_cycle</t>
+  </si>
+  <si>
+    <t>best val meanAP</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>lr</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +503,10 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,22 +530,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -541,19 +553,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>5.0000000000000001E-3</v>
@@ -562,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -573,19 +585,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0.01</v>
@@ -594,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -605,19 +617,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>1E-3</v>
@@ -626,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,19 +649,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>5.0000000000000001E-3</v>
@@ -658,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -669,19 +681,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0.01</v>
@@ -690,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -701,19 +713,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>1E-3</v>
@@ -722,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -733,16 +745,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>5.0000000000000001E-3</v>
@@ -751,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -762,16 +774,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>0.01</v>
@@ -780,10 +792,10 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -791,16 +803,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>1E-3</v>
@@ -809,23 +821,68 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">

--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737881E1-8C43-4D8A-B95F-7EC9C9C39871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D85BAA5-E9C5-442B-B096-A954F36F4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="5250" windowWidth="25860" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +141,9 @@
     <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01_b8" --lr 0.01 -b 8</t>
   </si>
   <si>
+    <t>resnet50_v2</t>
+  </si>
+  <si>
     <t>OneCycleLR</t>
   </si>
   <si>
@@ -163,6 +166,18 @@
   </si>
   <si>
     <t>lr</t>
+  </si>
+  <si>
+    <t>v2-baseline-b4</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50_v2 -d "./data" -o "./model_v2_lr005_b4" --lr 0.005 -b 4 -s linear</t>
+  </si>
+  <si>
+    <t>v2-onecycle-b4</t>
+  </si>
+  <si>
+    <t>python src/train.py -m resnet50_v2 -d "./data" -o "./model_v2_1cycle_lr005_b4" --lr 0.005 -b 4 -s one_cycle</t>
   </si>
 </sst>
 </file>
@@ -492,7 +507,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -832,16 +847,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
       <c r="G11">
         <v>5.0000000000000001E-3</v>
@@ -853,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -861,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -870,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>5.0000000000000001E-3</v>
@@ -882,17 +897,65 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">

--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D85BAA5-E9C5-442B-B096-A954F36F4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C2A78-D916-478B-8EC6-C065259A4F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="5250" windowWidth="25860" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4800" yWindow="2025" windowWidth="10845" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>babar</t>
   </si>
   <si>
-    <t>running</t>
-  </si>
-  <si>
     <t>python src/train.py -m resnet50 -d "./data" -o "./test_model_unfz_lr01" --lr 0.01 -b 2</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>0.139 at E6</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>0.117 at E9</t>
   </si>
   <si>
@@ -178,6 +172,27 @@
   </si>
   <si>
     <t>python src/train.py -m resnet50_v2 -d "./data" -o "./model_v2_1cycle_lr005_b4" --lr 0.005 -b 4 -s one_cycle</t>
+  </si>
+  <si>
+    <t>0.125 @ E10</t>
+  </si>
+  <si>
+    <t>running @ t1</t>
+  </si>
+  <si>
+    <t>error: unable to find valid cuDNN</t>
+  </si>
+  <si>
+    <t>0.142 @ E10</t>
+  </si>
+  <si>
+    <t>T2: CUDA out of memory</t>
+  </si>
+  <si>
+    <t>0.139 @ E7</t>
+  </si>
+  <si>
+    <t>0.131 @ E8</t>
   </si>
 </sst>
 </file>
@@ -507,7 +522,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -560,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -589,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -621,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -632,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -653,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -664,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -685,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -696,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -717,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -728,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -749,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -760,7 +775,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -778,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -789,7 +807,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -807,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -818,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -836,10 +857,10 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -847,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -856,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>5.0000000000000001E-3</v>
@@ -865,10 +886,10 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -876,7 +897,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -885,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>5.0000000000000001E-3</v>
@@ -894,10 +918,10 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -905,10 +929,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -923,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -934,16 +958,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>5.0000000000000001E-3</v>
@@ -952,10 +976,10 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">

--- a/docs/central_experiments.xlsx
+++ b/docs/central_experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\smartathon\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haida\Documents\GitHub\smartathon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C2A78-D916-478B-8EC6-C065259A4F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36014A53-B2AA-4415-8F8F-4D9DE7EFFDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4800" yWindow="2025" windowWidth="10845" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="5250" windowWidth="25860" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -177,22 +177,19 @@
     <t>0.125 @ E10</t>
   </si>
   <si>
-    <t>running @ t1</t>
-  </si>
-  <si>
-    <t>error: unable to find valid cuDNN</t>
-  </si>
-  <si>
     <t>0.142 @ E10</t>
   </si>
   <si>
-    <t>T2: CUDA out of memory</t>
-  </si>
-  <si>
     <t>0.139 @ E7</t>
   </si>
   <si>
     <t>0.131 @ E8</t>
+  </si>
+  <si>
+    <t>0.15 at E8</t>
+  </si>
+  <si>
+    <t>running</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -764,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
@@ -828,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -841,6 +838,9 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
@@ -885,9 +885,6 @@
       <c r="H11">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
       <c r="K11" t="s">
         <v>40</v>
       </c>
@@ -918,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
@@ -946,9 +943,6 @@
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
       <c r="K13" t="s">
         <v>46</v>
       </c>
@@ -974,9 +968,6 @@
       </c>
       <c r="H14">
         <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
       </c>
       <c r="K14" t="s">
         <v>48</v>
